--- a/Results/Video Game Ontology/Candidate CQs/P2_LLama_VideoGame.xlsx
+++ b/Results/Video Game Ontology/Candidate CQs/P2_LLama_VideoGame.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Desktop\F_Generative AI Results\Repository Files\Results\Vedio Game Ontology\Candidate CQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\Video Game Ontology\Candidate CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B2B8E-55C7-4ED5-B23F-20AC131A9B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0EE3A6-CCA7-45C8-BB05-1819912A44D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4196,7 +4196,7 @@
     <t>Will the event have multiple sessions or only one session</t>
   </si>
   <si>
-    <t>Sentence2</t>
+    <t>Candidate CQs</t>
   </si>
 </sst>
 </file>
@@ -4561,9 +4561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1323" workbookViewId="0">
-      <selection activeCell="A1342" sqref="A1342:A1379"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
